--- a/data/CHEM.xlsx
+++ b/data/CHEM.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -410,10 +440,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MATH 96; or MATH 115; or appropriate Math Placement Level.</t>
+          <t>MATH 96; or MATH 115; or appropriate Math Placement Level.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -432,12 +477,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MATH 118. Recommended: High school chemistry or equivalent.</t>
+          <t>MATH 118.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>F,W,SP,SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>High school chemistry or equivalent.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F,W,SP,SU </t>
         </is>
       </c>
     </row>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHEM 124, or AP Chemistry score of 5.</t>
+          <t>CHEM 124, or AP Chemistry score of 5.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -476,10 +551,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHEM 125 with a grade of C- or better or consent of instructor.</t>
+          <t>CHEM 125 with a grade of C- or better or consent of instructor.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -498,12 +588,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MATH 118 or MATH 330. Recommended: High school chemistry or equivalent.</t>
+          <t>MATH 118 or MATH 330.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>High school chemistry or equivalent.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CHEM 127 or AP Chemistry score of 5.</t>
+          <t>CHEM 127 or AP Chemistry score of 5.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CHEM 128.</t>
+          <t>CHEM 128.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -564,10 +699,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CHEM 111, CHEM 124, or CHEM 127 and consent of department chair.</t>
+          <t>CHEM 111, CHEM 124, or CHEM 127 and consent of department chair.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -591,6 +741,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -613,6 +778,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CHEM 126.</t>
+          <t>CHEM 126.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CHEM 111, CHEM 124 or CHEM 127.</t>
+          <t>CHEM 111, CHEM 124 or CHEM 127.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -674,10 +884,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CHEM 126 or CHEM 129 with a grade of C- or better or consent of instructor.</t>
+          <t>CHEM 126 or CHEM 129 with a grade of C- or better or consent of instructor.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -696,12 +921,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CHEM 216 with a grade of C- or better or consent of instructor. Corequisite: CHEM 221 for Chemistry and Biochemistry majors; or CHEM 220 for non-Chemistry and non-Biochemistry majors.</t>
+          <t>CHEM 216 with a grade of C- or better or consent of instructor.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>CHEM 221 for Chemistry and Biochemistry majors; or CHEM 220 for non-Chemistry and non-Biochemistry majors.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -718,12 +958,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHEM 217 with a grade of C- or better or consent of instructor. Corequisite: CHEM 324 for Chemistry and Biochemistry majors; or CHEM 223 for non-Chemistry and non-Biochemistry majors.</t>
+          <t>CHEM 217 with a grade of C- or better or consent of instructor.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>F, SP</t>
+          <t>CHEM 324 for Chemistry and Biochemistry majors; or CHEM 223 for non-Chemistry and non-Biochemistry majors.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, SP </t>
         </is>
       </c>
     </row>
@@ -745,7 +1000,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>W, SPCorequisite: CHEM 217.</t>
+          <t>CHEM 217.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>W, SP</t>
         </is>
       </c>
     </row>
@@ -762,12 +1032,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>major in Chemistry or Biochemistry. Corequisite: CHEM 217.</t>
+          <t>major in Chemistry or Biochemistry.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>CHEM 217.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -789,7 +1074,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>F, SPCorequisite: CHEM 218.</t>
+          <t>CHEM 218.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>F, SP</t>
         </is>
       </c>
     </row>
@@ -806,10 +1106,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CHEM 126 or 129.</t>
+          <t>CHEM 126 or 129.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CHEM 111, CHEM 124 or CHEM 127.</t>
+          <t>CHEM 111, CHEM 124 or CHEM 127.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -855,6 +1185,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -872,10 +1217,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CHEM 216 or CHEM 312.</t>
+          <t>CHEM 216 or CHEM 312.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -894,10 +1254,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CHEM 203 and CHEM 218.</t>
+          <t>CHEM 203 and CHEM 218.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; completion of GE Area B2; and one of the following courses: CHEM 110, CHEM 124, or CHEM 127.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; completion of GE Area B2; and one of the following CHEM 110, CHEM 124, or CHEM 127.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -938,10 +1328,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CHEM 125 or CHEM 128.</t>
+          <t>CHEM 125 or CHEM 128.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -960,10 +1365,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CHEM 212, CHEM 216, CHEM 312, or CHEM 316.</t>
+          <t>CHEM 212, CHEM 216, CHEM 312, or CHEM 316.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -982,12 +1402,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>major in Chemistry or Biochemistry. Corequisite: CHEM 218.</t>
+          <t>major in Chemistry or Biochemistry.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F, SP</t>
+          <t>CHEM 218.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, SP </t>
         </is>
       </c>
     </row>
@@ -1004,10 +1439,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CHEM 126 or 129.</t>
+          <t>CHEM 126 or 129.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>F, SP, SU</t>
         </is>
@@ -1026,10 +1476,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CHEM 126 or 129; and CHEM 212 or CHEM 312; or CHEM 216 or CHEM 316.</t>
+          <t>CHEM 126 or 129; and CHEM 212 or CHEM 312; or CHEM 216 or CHEM 316.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1053,6 +1518,21 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -1070,10 +1550,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CHEM 126 or CHEM 129; MATH 143; PHYS 122 or PHYS 132.</t>
+          <t>CHEM 126 or CHEM 129; MATH 143; PHYS 122 or PHYS 132.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -1092,10 +1587,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CHEM 351.</t>
+          <t>CHEM 351.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1114,10 +1624,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CHEM 352.</t>
+          <t>CHEM 352.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1136,12 +1661,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CHEM 231/331. Corequisite: CHEM 352.</t>
+          <t>CHEM 231/331.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>CHEM 352.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1163,7 +1703,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>F, SPCorequisite: CHEM 353.</t>
+          <t>CHEM 353.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>F, SP</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1735,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CHEM 217 or CHEM 317; and BIO 161. Recommended: CHEM 231/331.</t>
+          <t>CHEM 217 or CHEM 317; and BIO 161.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>CHEM 231/331.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1202,10 +1772,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CHEM 371.</t>
+          <t>CHEM 371.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1224,10 +1809,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CHEM 371.</t>
+          <t>CHEM 371.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1246,10 +1846,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CHEM 313 or CHEM 371.</t>
+          <t>CHEM 313 or CHEM 371.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1273,6 +1888,21 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1295,6 +1925,21 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1312,10 +1957,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CHEM 303 and CHEM 352.</t>
+          <t>CHEM 303 and CHEM 352.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1339,7 +1999,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>TBDCorequisite: CHEM 353.</t>
+          <t>CHEM 353.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>TBD</t>
         </is>
       </c>
     </row>
@@ -1356,10 +2031,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CHEM 218 or CHEM 318.</t>
+          <t>CHEM 218 or CHEM 318.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1378,10 +2068,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BIO 161 and CHEM 217.</t>
+          <t>BIO 161 and CHEM 217.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1400,10 +2105,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CHEM 218 or CHEM 318; CHEM 313 or CHEM 371.</t>
+          <t>CHEM 218 or CHEM 318; CHEM 313 or CHEM 371.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1422,10 +2142,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CHEM 218/318.</t>
+          <t>CHEM 218/318.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1444,10 +2179,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CHEM 371.</t>
+          <t>CHEM 371.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1466,12 +2216,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CHEM 231/331, CHEM 354. Recommended: CHEM 353.</t>
+          <t>CHEM 231/331, CHEM 354.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>CHEM 353.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1488,12 +2253,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Junior standing; BIO 161 or BIO 303. Recommended: BIO 302 or BIO 303 or BIO 351 or CHEM 373.</t>
+          <t>Junior standing; BIO 161 or BIO 303.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>F, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>BIO 302 or BIO 303 or BIO 351 or CHEM 373.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, SP </t>
         </is>
       </c>
     </row>
@@ -1510,10 +2290,25 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CHEM 212/312 or CHEM 216/316.</t>
+          <t>CHEM 212/312 or CHEM 216/316.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1532,10 +2327,25 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CHEM 217/317 and CHEM 444.</t>
+          <t>CHEM 217/317 and CHEM 444.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1554,10 +2364,25 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CHEM 125 or CHEM 128; CHEM 351, MATE 380, or ME 302.</t>
+          <t>CHEM 125 or CHEM 128; CHEM 351, MATE 380, or ME 302.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1581,7 +2406,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FCorequisite: CHEM 444.</t>
+          <t>CHEM 444.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -1598,12 +2438,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CHEM 447. Corequisite: CHEM 445.</t>
+          <t>CHEM 447.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>CHEM 445.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1620,10 +2475,25 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CHEM 444.</t>
+          <t>CHEM 444.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -1642,10 +2512,25 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CHEM 444 or CHEM 544.</t>
+          <t>CHEM 444 or CHEM 544.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1664,12 +2549,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CHEM 447 or CHEM 547. Corequisite: CHEM 450. Recommended: CHEM 445 or CHEM 545; CHEM 448 or CHEM 548; CHEM 446.</t>
+          <t>CHEM 447 or CHEM 547.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>CHEM 450.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>CHEM 445 or CHEM 545; CHEM 448 or CHEM 548; CHEM 446.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP  </t>
         </is>
       </c>
     </row>
@@ -1686,10 +2586,25 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CHEM 212 or CHEM 216 or CHEM 312 or CHEM 316; CHEM 351 or MATE 380; or graduate standing.</t>
+          <t>CHEM 212 or CHEM 216 or CHEM 312 or CHEM 316; CHEM 351 or MATE 380; or graduate standing.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1708,10 +2623,25 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CHEM 324.</t>
+          <t>CHEM 324.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1735,7 +2665,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>F,W,SP,SUCorequisite: CHEM 218 or CHEM 318 and junior standing.</t>
+          <t>CHEM 218 or CHEM 318 and junior standing.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>F,W,SP,SU</t>
         </is>
       </c>
     </row>
@@ -1757,6 +2702,21 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1779,6 +2739,21 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1796,10 +2771,25 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Junior standing, CHEM 231/331 (or permission of instructor), evidence of satisfactory preparation in chemistry; department chair approval required.</t>
+          <t>Junior standing, CHEM 231/331 (or permission of instructor), evidence of satisfactory preparation in chemistry; department chair approval required.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1823,6 +2813,21 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1840,10 +2845,25 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CHEM 351, CHEM 217 or CHEM 317.</t>
+          <t>CHEM 351, CHEM 217 or CHEM 317.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1867,6 +2887,21 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1884,10 +2919,25 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CHEM 371.</t>
+          <t>CHEM 371.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1906,10 +2956,25 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BIO 161, and grade of C- or better in BIO 351 or CHEM 373 or consent of instructor.</t>
+          <t>BIO 161, and grade of C- or better in BIO 351 or CHEM 373 or consent of instructor.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1928,10 +2993,25 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BIO/CHEM 475; CHEM 313 or CHEM 371, or graduate standing in Biological Sciences.</t>
+          <t>BIO/CHEM 475; CHEM 313 or CHEM 371, or graduate standing in Biological Sciences.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1950,10 +3030,25 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CHEM 218 or CHEM 318.</t>
+          <t>CHEM 218 or CHEM 318.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1972,10 +3067,25 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CHEM 352 and CHEM 231/331.</t>
+          <t>CHEM 352 and CHEM 231/331.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1999,7 +3109,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>FCorequisite: CHEM 481.</t>
+          <t>CHEM 481.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -2021,6 +3146,21 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -2043,6 +3183,21 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -2065,6 +3220,21 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -2082,10 +3252,25 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CHEM 212/312 or CHEM 216/316 or equivalent; CHEM 351 or equivalent.</t>
+          <t>CHEM 212/312 or CHEM 216/316 or equivalent; CHEM 351 or equivalent.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2104,10 +3289,25 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CHEM 544.</t>
+          <t>CHEM 544.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2131,7 +3331,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>FCorequisite: CHEM 544.</t>
+          <t>CHEM 544.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -2148,12 +3363,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CHEM 547. Corequisite: CHEM 545.</t>
+          <t>CHEM 547.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>CHEM 545.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -2170,10 +3400,25 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CHEM 444 or CHEM 544.</t>
+          <t>CHEM 444 or CHEM 544.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2197,7 +3442,22 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SPCorequisite: CHEM 550.</t>
+          <t>CHEM 550.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -2219,6 +3479,21 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2241,6 +3516,21 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2263,6 +3553,21 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2280,10 +3585,25 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CHEM 545, CHEM 547, CHEM 548, CHEM 550, CHEM 551.</t>
+          <t>CHEM 545, CHEM 547, CHEM 548, CHEM 550, CHEM 551.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -2302,10 +3622,25 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CHEM 545, CHEM 547, CHEM 548, CHEM 550, CHEM 551.</t>
+          <t>CHEM 545, CHEM 547, CHEM 548, CHEM 550, CHEM 551.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
